--- a/db테이블.xlsx
+++ b/db테이블.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\츄레일 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D4585-5D6F-46E4-A5A6-556F95E768AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE9429-9754-419B-B2E1-3B6D008993AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB3803F5-2CA1-43DB-BAAE-BEE52483B9B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FB3803F5-2CA1-43DB-BAAE-BEE52483B9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
-  <si>
-    <t>예매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="148">
   <si>
     <t>출발일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출발역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도착역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좌석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게사판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +186,446 @@
   </si>
   <si>
     <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원(사업체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주하는 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유실물 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개역+유실물센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습득장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input(text)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 여행상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광열차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반,관광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장,대리,사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광(DLT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등급, 2등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 Qeustion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seatno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usertel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usergender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nocontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usermail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useradd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mempwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memtel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memgender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>losttitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areatitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areacontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areadate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,21 +776,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -401,9 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,11 +825,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,575 +1190,2234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CED18-9C37-4CF9-B5E5-B16396B33E85}">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15" t="s">
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="15" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="Q13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="I19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="19" t="s">
+      <c r="N19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="Q23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="L25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
+      <c r="S25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="L27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="I30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="L36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+      <c r="M38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L39" s="2"/>
+      <c r="M39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
+      <c r="M40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L41" s="2"/>
+      <c r="M41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L42" s="9"/>
+      <c r="M42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G14:J14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1492E6-4B3A-472D-A028-1932882F8F8F}">
+  <dimension ref="B1:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="3"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="Q15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="3"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="Q25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="O26" s="11"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="6"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="L28" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="L31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L35" s="2"/>
+      <c r="M35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L36" s="9"/>
+      <c r="M36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="L5:O5"/>
+  <mergeCells count="13">
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db테이블.xlsx
+++ b/db테이블.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\츄레일 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EB549-17BA-4109-93C1-53B049683FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A9CE2-7931-440C-A9D1-D406275E0E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="3405" windowWidth="15135" windowHeight="11385" xr2:uid="{FB3803F5-2CA1-43DB-BAAE-BEE52483B9B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB3803F5-2CA1-43DB-BAAE-BEE52483B9B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="194">
   <si>
     <t>출발일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,38 @@
   </si>
   <si>
     <t>listcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장접수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,53 +1023,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,7 +1391,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="I38" sqref="I38:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,45 +1427,45 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="10"/>
       <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="22"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
@@ -1471,10 +1506,10 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1487,10 +1522,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -1503,10 +1538,10 @@
         <v>56</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1516,10 +1551,10 @@
         <v>43</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="V4" s="6" t="s">
@@ -1531,10 +1566,10 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1559,10 +1594,10 @@
         <v>147</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -1572,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="V5" s="5" t="s">
@@ -1587,10 +1622,10 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1656,7 +1691,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="8"/>
@@ -1707,7 +1742,7 @@
         <v>149</v>
       </c>
       <c r="O8" s="17"/>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="28" t="s">
         <v>152</v>
       </c>
       <c r="Q8" s="12" t="s">
@@ -1740,15 +1775,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="3"/>
       <c r="N9" s="15" t="s">
         <v>150</v>
@@ -1832,10 +1867,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -1849,7 +1884,7 @@
       <c r="N11" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
@@ -1904,7 +1939,7 @@
       <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14" t="s">
         <v>68</v>
       </c>
@@ -1925,24 +1960,24 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22"/>
-      <c r="T13" s="24" t="s">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+      <c r="T13" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="22"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
@@ -1976,15 +2011,15 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="3"/>
       <c r="H15" s="15" t="s">
         <v>29</v>
@@ -1998,10 +2033,10 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="5" t="s">
@@ -2011,10 +2046,10 @@
         <v>32</v>
       </c>
       <c r="R15" s="4"/>
-      <c r="T15" s="29" t="s">
+      <c r="T15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="V15" s="5" t="s">
@@ -2066,7 +2101,7 @@
       <c r="T16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="U16" s="34" t="s">
+      <c r="U16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V16" s="13" t="s">
@@ -2080,10 +2115,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2095,7 +2130,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="10"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="28"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
@@ -2174,15 +2209,15 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="3"/>
       <c r="N19" s="15" t="s">
         <v>29</v>
@@ -2231,7 +2266,7 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="28"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="8"/>
@@ -2260,10 +2295,10 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2308,15 +2343,15 @@
         <v>26</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
@@ -2352,15 +2387,15 @@
         <v>23</v>
       </c>
       <c r="R23" s="4"/>
-      <c r="T23" s="24" t="s">
+      <c r="T23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="20"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="34"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
@@ -2387,10 +2422,10 @@
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="29" t="s">
+      <c r="N24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="21" t="s">
         <v>10</v>
       </c>
       <c r="P24" s="5" t="s">
@@ -2412,7 +2447,7 @@
       <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="7" t="s">
         <v>95</v>
       </c>
@@ -2436,16 +2471,16 @@
       <c r="N25" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="O25" s="33"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="12" t="s">
         <v>168</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="4"/>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U25" s="25" t="s">
+      <c r="U25" s="21" t="s">
         <v>10</v>
       </c>
       <c r="V25" s="5" t="s">
@@ -2475,7 +2510,7 @@
       <c r="N26" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="12" t="s">
         <v>124</v>
       </c>
@@ -2488,7 +2523,7 @@
       <c r="T26" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="U26" s="34" t="s">
+      <c r="U26" s="30" t="s">
         <v>10</v>
       </c>
       <c r="V26" s="13" t="s">
@@ -2502,15 +2537,15 @@
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="3"/>
       <c r="H27" s="15" t="s">
         <v>46</v>
@@ -2600,10 +2635,10 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2615,7 +2650,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="28"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8"/>
@@ -2685,19 +2720,19 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
       <c r="N31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="28"/>
+      <c r="O31" s="24"/>
       <c r="P31" s="7" t="s">
         <v>128</v>
       </c>
@@ -2728,15 +2763,15 @@
       <c r="L32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="24" t="s">
+      <c r="T32" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="U32" s="21" t="s">
+      <c r="U32" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="22"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="32"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="15" t="s">
@@ -2750,10 +2785,10 @@
         <v>33</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -2763,6 +2798,15 @@
         <v>32</v>
       </c>
       <c r="L33" s="4"/>
+      <c r="N33" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="32"/>
       <c r="T33" s="15"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -2794,10 +2838,23 @@
         <v>158</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="T34" s="29" t="s">
+      <c r="N34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="T34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="U34" s="25" t="s">
+      <c r="U34" s="21" t="s">
         <v>10</v>
       </c>
       <c r="V34" s="5" t="s">
@@ -2833,6 +2890,17 @@
         <v>158</v>
       </c>
       <c r="L35" s="4"/>
+      <c r="N35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="17"/>
+      <c r="P35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="4"/>
       <c r="T35" s="15" t="s">
         <v>162</v>
       </c>
@@ -2858,10 +2926,21 @@
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="28"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8"/>
+      <c r="N36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="4"/>
       <c r="T36" s="15" t="s">
         <v>165</v>
       </c>
@@ -2888,6 +2967,17 @@
       <c r="F37" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="N37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="17"/>
+      <c r="P37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="4"/>
       <c r="T37" s="16" t="s">
         <v>163</v>
       </c>
@@ -2914,12 +3004,30 @@
       <c r="F38" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="N38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="17"/>
+      <c r="P38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="7" t="s">
         <v>113</v>
       </c>
@@ -2927,9 +3035,22 @@
         <v>35</v>
       </c>
       <c r="F39" s="8"/>
+      <c r="N39" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="R39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="O33:R33"/>
     <mergeCell ref="U32:X32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I31:L31"/>
